--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EB07FE-AD4C-452F-8971-340578CAB36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="195" windowWidth="19395" windowHeight="6765"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入力値精査" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">入力値精査!$A$1:$AI$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">入力値精査!$A$1:$AI$52</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
     <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -231,56 +243,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Batchletの場合は、データに依存しない処理のため、精査処理を行わない前提とする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Bean Validationはバリデーションの実行順序を指定できないため、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(Nablarch Validation)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>上記の理由から本プロジェクトでは、こちらを選択する。</t>
-    <rPh sb="21" eb="23">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Nablarch独自のバリデーション機能</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarch独自のバリデーション機能を使用して、オンライン処理の場合はActionから、</t>
-    <rPh sb="21" eb="23">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Chunkのバッチ処理の場合はItemProcessorから入力値を取得して、単項目精査処理がエラーなく完了した後に項目間精査が行われる。</t>
-    <rPh sb="44" eb="46">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>単項目精査では、Nablarch独自のバリデーション機能を使用する。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -355,14 +322,56 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本プロジェクトではでこちらは選択しない。</t>
+    <t>NablarchではBean Validationを利用したバリデーションが推奨されているため。</t>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bean Validationを利用したバリデーションでは精査の順序が保証されないが、</t>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査順序の指定は要件にないので許容する。</t>
+    <rPh sb="0" eb="4">
+      <t>セイサジュンジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -578,7 +587,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,9 +673,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -759,9 +765,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -769,12 +775,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -816,7 +825,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,9 +858,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,6 +910,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1059,8 +1102,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
   </sheetViews>
@@ -1071,48 +1114,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="45"/>
+      <c r="R1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="44"/>
       <c r="Y1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1121,43 +1164,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
       <c r="P2" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="54"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1166,39 +1209,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="57"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="39"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="38"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1239,12 +1282,12 @@
         <v>7.1.1.1.</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1285,241 +1328,243 @@
       <c r="AH13" s="18"/>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="31" t="s">
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="31"/>
+    </row>
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="31"/>
+    </row>
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="31"/>
+    </row>
+    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="34"/>
+    </row>
+    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="32"/>
-    </row>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="32"/>
-    </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="32"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="35"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="32"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="31"/>
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="32"/>
+      <c r="F19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="31"/>
     </row>
     <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="35"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="34"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="15"/>
@@ -1793,19 +1838,19 @@
         <v>7.1.1.3.</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="15"/>
       <c r="F34" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="15"/>
       <c r="F35" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1837,110 +1882,90 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
     </row>
     <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="20"/>
-      <c r="AH45" s="20"/>
-    </row>
-    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="15" t="str">
+      <c r="E45" s="15" t="str">
         <f>$D$37&amp;"2."</f>
         <v>7.1.2.2.</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F48" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F51" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="27"/>
-    </row>
-    <row r="53" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="15" t="str">
+      <c r="E49" s="15" t="str">
         <f>$D$37&amp;"3."</f>
         <v>7.1.2.3.</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F54" s="28" t="s">
+    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="4" t="s">
+    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EB07FE-AD4C-452F-8971-340578CAB36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E1E78-EB2D-48DC-89C9-930D1D285A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,13 +96,6 @@
     <t>方針</t>
   </si>
   <si>
-    <t>データベースを</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>用いた精査</t>
-  </si>
-  <si>
     <t>単項目精査</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -118,13 +111,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースを用いた精査の実現方式</t>
-    <rPh sb="7" eb="8">
-      <t>モチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>概要</t>
   </si>
   <si>
@@ -162,10 +148,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースを使用した精査。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本システムでは入力値が予め定義しておいた単項目精査ルールに従っているかどうかで精査を行う。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -200,38 +182,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>単項目精査、項目間精査およびデータベースを用いた精査の実現方式</t>
-    <rPh sb="0" eb="1">
-      <t>タン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースを用いた精査処理は、単項目精査と項目間精査を通過した後に行われる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アプリケーションプログラマが個別に精査ロジックを業務ロジックに実装し、チェックを行う。</t>
     <rPh sb="40" eb="41">
       <t>オコナ</t>
@@ -364,6 +314,84 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査</t>
+    <rPh sb="0" eb="2">
+      <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない精査の実現方式</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない精査処理は、単項目精査と項目間精査を通過した後に行われる。</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単項目精査、項目間精査およびFormで完結しない精査の実現方式</t>
+    <rPh sb="0" eb="1">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースやセッション情報を使用した精査など、Formが持つ情報だけでは実施できない精査。</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1114,7 +1142,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1135,7 +1163,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="42" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="S1" s="43"/>
       <c r="T1" s="43"/>
@@ -1144,7 +1172,7 @@
       <c r="W1" s="43"/>
       <c r="X1" s="44"/>
       <c r="Y1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="45"/>
@@ -1176,7 +1204,7 @@
       <c r="N2" s="49"/>
       <c r="O2" s="50"/>
       <c r="P2" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="51" t="s">
@@ -1189,7 +1217,7 @@
       <c r="W2" s="52"/>
       <c r="X2" s="53"/>
       <c r="Y2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="45"/>
@@ -1230,7 +1258,7 @@
       <c r="W3" s="55"/>
       <c r="X3" s="56"/>
       <c r="Y3" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="14"/>
       <c r="AA3" s="45"/>
@@ -1282,12 +1310,12 @@
         <v>7.1.1.1.</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1307,7 +1335,7 @@
       <c r="O13" s="17"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
@@ -1329,7 +1357,7 @@
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
@@ -1339,12 +1367,12 @@
       <c r="L14" s="30"/>
       <c r="M14" s="31"/>
       <c r="N14" s="30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14" s="30"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R14" s="30"/>
       <c r="S14" s="30"/>
@@ -1366,7 +1394,7 @@
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
@@ -1379,7 +1407,7 @@
       <c r="O15" s="30"/>
       <c r="P15" s="31"/>
       <c r="Q15" s="30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="R15" s="30"/>
       <c r="S15" s="30"/>
@@ -1399,9 +1427,9 @@
       <c r="AG15" s="30"/>
       <c r="AH15" s="31"/>
     </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
@@ -1414,7 +1442,7 @@
       <c r="O16" s="30"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
@@ -1467,7 +1495,7 @@
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -1477,12 +1505,12 @@
       <c r="L18" s="30"/>
       <c r="M18" s="31"/>
       <c r="N18" s="30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O18" s="30"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
@@ -1504,7 +1532,7 @@
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" s="35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -1581,7 +1609,7 @@
     <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="15"/>
       <c r="F23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1596,7 +1624,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
       <c r="J25" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -1626,13 +1654,13 @@
     <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="15"/>
       <c r="F26" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
       <c r="J26" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -1694,13 +1722,13 @@
     <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="15"/>
       <c r="F28" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
       <c r="J28" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -1762,13 +1790,13 @@
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="15"/>
       <c r="F30" s="19" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="21"/>
       <c r="J30" s="20" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -1798,7 +1826,7 @@
     <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="15"/>
       <c r="F31" s="22" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -1838,19 +1866,19 @@
         <v>7.1.1.3.</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="15"/>
       <c r="F34" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="15"/>
       <c r="F35" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1862,7 +1890,7 @@
         <v>7.1.2.</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1874,23 +1902,23 @@
         <v>7.1.2.1.</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1930,17 +1958,17 @@
         <v>7.1.2.2.</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1952,17 +1980,17 @@
         <v>7.1.2.3.</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F51" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E1E78-EB2D-48DC-89C9-930D1D285A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="195" windowWidth="19395" windowHeight="6765"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入力値精査" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">入力値精査!$A$1:$AI$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">入力値精査!$A$1:$AI$52</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
     <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -84,13 +96,6 @@
     <t>方針</t>
   </si>
   <si>
-    <t>データベースを</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>用いた精査</t>
-  </si>
-  <si>
     <t>単項目精査</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -106,13 +111,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースを用いた精査の実現方式</t>
-    <rPh sb="7" eb="8">
-      <t>モチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>概要</t>
   </si>
   <si>
@@ -150,10 +148,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースを使用した精査。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本システムでは入力値が予め定義しておいた単項目精査ルールに従っているかどうかで精査を行う。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -188,38 +182,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>単項目精査、項目間精査およびデータベースを用いた精査の実現方式</t>
-    <rPh sb="0" eb="1">
-      <t>タン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースを用いた精査処理は、単項目精査と項目間精査を通過した後に行われる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アプリケーションプログラマが個別に精査ロジックを業務ロジックに実装し、チェックを行う。</t>
     <rPh sb="40" eb="41">
       <t>オコナ</t>
@@ -231,56 +193,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Batchletの場合は、データに依存しない処理のため、精査処理を行わない前提とする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Bean Validationはバリデーションの実行順序を指定できないため、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(Nablarch Validation)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>上記の理由から本プロジェクトでは、こちらを選択する。</t>
-    <rPh sb="21" eb="23">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Nablarch独自のバリデーション機能</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarch独自のバリデーション機能を使用して、オンライン処理の場合はActionから、</t>
-    <rPh sb="21" eb="23">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Chunkのバッチ処理の場合はItemProcessorから入力値を取得して、単項目精査処理がエラーなく完了した後に項目間精査が行われる。</t>
-    <rPh sb="44" eb="46">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>単項目精査では、Nablarch独自のバリデーション機能を使用する。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -355,14 +272,134 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本プロジェクトではでこちらは選択しない。</t>
+    <t>NablarchではBean Validationを利用したバリデーションが推奨されているため。</t>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bean Validationを利用したバリデーションでは精査の順序が保証されないが、</t>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査順序の指定は要件にないので許容する。</t>
+    <rPh sb="0" eb="4">
+      <t>セイサジュンジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査</t>
+    <rPh sb="0" eb="2">
+      <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない精査の実現方式</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない精査処理は、単項目精査と項目間精査を通過した後に行われる。</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単項目精査、項目間精査およびFormで完結しない精査の実現方式</t>
+    <rPh sb="0" eb="1">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースやセッション情報を使用した精査など、Formが持つ情報だけでは実施できない精査。</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイサ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -578,7 +615,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,9 +701,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -759,9 +793,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -769,12 +803,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -816,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,9 +886,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,6 +938,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1059,8 +1130,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
   </sheetViews>
@@ -1071,48 +1142,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="45"/>
+      <c r="R1" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="44"/>
       <c r="Y1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1121,43 +1192,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
       <c r="P2" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="54"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1166,39 +1237,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="57"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="39"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="38"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1239,12 +1310,12 @@
         <v>7.1.1.1.</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1264,7 +1335,7 @@
       <c r="O13" s="17"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
@@ -1285,241 +1356,243 @@
       <c r="AH13" s="18"/>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="32"/>
+      <c r="F14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="31"/>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="31"/>
+    </row>
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="31"/>
+    </row>
+    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="34"/>
+    </row>
+    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="32"/>
-    </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="32"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="35"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="32"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="31"/>
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="32"/>
+      <c r="F19" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="31"/>
     </row>
     <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="35"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="34"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="15"/>
@@ -1536,7 +1609,7 @@
     <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="15"/>
       <c r="F23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1551,7 +1624,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
       <c r="J25" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -1581,13 +1654,13 @@
     <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="15"/>
       <c r="F26" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
       <c r="J26" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -1649,13 +1722,13 @@
     <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="15"/>
       <c r="F28" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
       <c r="J28" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -1717,13 +1790,13 @@
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="15"/>
       <c r="F30" s="19" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="21"/>
       <c r="J30" s="20" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -1753,7 +1826,7 @@
     <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="15"/>
       <c r="F31" s="22" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -1793,19 +1866,19 @@
         <v>7.1.1.3.</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="15"/>
       <c r="F34" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="15"/>
       <c r="F35" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1817,7 +1890,7 @@
         <v>7.1.2.</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1829,118 +1902,98 @@
         <v>7.1.2.1.</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
     </row>
     <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="20"/>
-      <c r="AH45" s="20"/>
-    </row>
-    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="15" t="str">
+      <c r="E45" s="15" t="str">
         <f>$D$37&amp;"2."</f>
         <v>7.1.2.2.</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>36</v>
+      <c r="F45" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F48" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F51" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="27"/>
-    </row>
-    <row r="53" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="15" t="str">
+      <c r="E49" s="15" t="str">
         <f>$D$37&amp;"3."</f>
         <v>7.1.2.3.</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F54" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F49" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E1E78-EB2D-48DC-89C9-930D1D285A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EAF778-B43C-4676-B616-FEF1DF70039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="入力値精査" sheetId="1" r:id="rId1"/>
+    <sheet name="7.1.入力値精査" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">入力値精査!$A$1:$AI$52</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.1.入力値精査'!$A$1:$AI$52</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EAF778-B43C-4676-B616-FEF1DF70039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5750DFE4-78B3-4B16-BFE9-723A5AD5AE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,22 +69,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力値精査の種類と順番</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジュンバン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力値精査の種類</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -392,6 +376,22 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値精査の種類と対象</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1142,7 +1142,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S1" s="43"/>
       <c r="T1" s="43"/>
@@ -1172,7 +1172,7 @@
       <c r="W1" s="43"/>
       <c r="X1" s="44"/>
       <c r="Y1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="45"/>
@@ -1204,7 +1204,7 @@
       <c r="N2" s="49"/>
       <c r="O2" s="50"/>
       <c r="P2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="51" t="s">
@@ -1217,7 +1217,7 @@
       <c r="W2" s="52"/>
       <c r="X2" s="53"/>
       <c r="Y2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="45"/>
@@ -1258,7 +1258,7 @@
       <c r="W3" s="55"/>
       <c r="X3" s="56"/>
       <c r="Y3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="14"/>
       <c r="AA3" s="45"/>
@@ -1290,90 +1290,150 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="15"/>
+    </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="15" t="str">
         <f>$C$7&amp;"1."</f>
         <v>7.1.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="15"/>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="str">
-        <f>$D$9&amp;"1."</f>
-        <v>7.1.1.1.</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="18"/>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F12" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="31"/>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="18"/>
+      <c r="E13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="31"/>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="29" t="s">
-        <v>16</v>
-      </c>
+      <c r="E14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="30" t="s">
-        <v>44</v>
-      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
@@ -1389,61 +1449,59 @@
       <c r="AD14" s="30"/>
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="31"/>
+      <c r="AG14" s="31"/>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="34"/>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="29" t="s">
-        <v>18</v>
-      </c>
+      <c r="E16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="O16" s="31"/>
+      <c r="P16" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
       <c r="T16" s="30"/>
@@ -1459,157 +1517,98 @@
       <c r="AD16" s="30"/>
       <c r="AE16" s="30"/>
       <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="31"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="34"/>
+      <c r="AG16" s="31"/>
+    </row>
+    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="31"/>
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="31"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="31"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="34"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="34"/>
+    </row>
+    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="15" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>7.1.2.</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="15" t="str">
-        <f>$D$9&amp;"2."</f>
-        <v>7.1.1.2.</v>
+        <f>$D$20&amp;"2."</f>
+        <v>7.1.2.2.</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="15"/>
       <c r="F23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1618,13 +1617,13 @@
     <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
       <c r="J25" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -1654,13 +1653,13 @@
     <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="15"/>
       <c r="F26" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
       <c r="J26" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -1722,13 +1721,13 @@
     <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="15"/>
       <c r="F28" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
       <c r="J28" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -1790,13 +1789,13 @@
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="15"/>
       <c r="F30" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="21"/>
       <c r="J30" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -1826,7 +1825,7 @@
     <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="15"/>
       <c r="F31" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -1862,23 +1861,23 @@
     </row>
     <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="15" t="str">
-        <f>$D$9&amp;"3."</f>
-        <v>7.1.1.3.</v>
+        <f>$D$20&amp;"3."</f>
+        <v>7.1.2.3.</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="15"/>
       <c r="F34" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="15"/>
       <c r="F35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1890,7 +1889,7 @@
         <v>7.1.2.</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1902,23 +1901,23 @@
         <v>7.1.2.1.</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1958,17 +1957,17 @@
         <v>7.1.2.2.</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1980,17 +1979,17 @@
         <v>7.1.2.3.</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F51" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5750DFE4-78B3-4B16-BFE9-723A5AD5AE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33E81D-73B6-43FB-880A-174280C640D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,13 +323,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Formで完結しない精査処理は、単項目精査と項目間精査を通過した後に行われる。</t>
-    <rPh sb="5" eb="7">
-      <t>カンケツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>単項目精査、項目間精査およびFormで完結しない精査の実現方式</t>
     <rPh sb="0" eb="1">
       <t>タン</t>
@@ -392,6 +385,16 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない精査処理は、単項目精査と項目間精査を通過した後に行う。</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1590,7 +1593,7 @@
         <v>7.1.2.</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1795,7 +1798,7 @@
       <c r="H30" s="20"/>
       <c r="I30" s="21"/>
       <c r="J30" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -1889,7 +1892,7 @@
         <v>7.1.2.</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1989,7 +1992,7 @@
     </row>
     <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F51" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E1E78-EB2D-48DC-89C9-930D1D285A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33E81D-73B6-43FB-880A-174280C640D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="入力値精査" sheetId="1" r:id="rId1"/>
+    <sheet name="7.1.入力値精査" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">入力値精査!$A$1:$AI$52</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.1.入力値精査'!$A$1:$AI$52</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,22 +69,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力値精査の種類と順番</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジュンバン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力値精査の種類</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -339,13 +323,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Formで完結しない精査処理は、単項目精査と項目間精査を通過した後に行われる。</t>
-    <rPh sb="5" eb="7">
-      <t>カンケツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>単項目精査、項目間精査およびFormで完結しない精査の実現方式</t>
     <rPh sb="0" eb="1">
       <t>タン</t>
@@ -392,6 +369,32 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値精査の種類と対象</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない精査処理は、単項目精査と項目間精査を通過した後に行う。</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1133,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1142,7 +1145,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1163,7 +1166,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S1" s="43"/>
       <c r="T1" s="43"/>
@@ -1172,7 +1175,7 @@
       <c r="W1" s="43"/>
       <c r="X1" s="44"/>
       <c r="Y1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="45"/>
@@ -1204,7 +1207,7 @@
       <c r="N2" s="49"/>
       <c r="O2" s="50"/>
       <c r="P2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="51" t="s">
@@ -1217,7 +1220,7 @@
       <c r="W2" s="52"/>
       <c r="X2" s="53"/>
       <c r="Y2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="45"/>
@@ -1258,7 +1261,7 @@
       <c r="W3" s="55"/>
       <c r="X3" s="56"/>
       <c r="Y3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="14"/>
       <c r="AA3" s="45"/>
@@ -1290,90 +1293,150 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="15"/>
+    </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="15" t="str">
         <f>$C$7&amp;"1."</f>
         <v>7.1.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="15"/>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="str">
-        <f>$D$9&amp;"1."</f>
-        <v>7.1.1.1.</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="18"/>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F12" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="31"/>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="18"/>
+      <c r="E13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="31"/>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="29" t="s">
-        <v>16</v>
-      </c>
+      <c r="E14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="30" t="s">
-        <v>44</v>
-      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
@@ -1389,61 +1452,59 @@
       <c r="AD14" s="30"/>
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="31"/>
+      <c r="AG14" s="31"/>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="34"/>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="29" t="s">
-        <v>18</v>
-      </c>
+      <c r="E16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="O16" s="31"/>
+      <c r="P16" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
       <c r="T16" s="30"/>
@@ -1459,157 +1520,98 @@
       <c r="AD16" s="30"/>
       <c r="AE16" s="30"/>
       <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="31"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="34"/>
+      <c r="AG16" s="31"/>
+    </row>
+    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="31"/>
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="31"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="31"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="34"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="34"/>
+    </row>
+    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="15" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>7.1.2.</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="15" t="str">
-        <f>$D$9&amp;"2."</f>
-        <v>7.1.1.2.</v>
+        <f>$D$20&amp;"2."</f>
+        <v>7.1.2.2.</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="15"/>
       <c r="F23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1618,13 +1620,13 @@
     <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
       <c r="J25" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -1654,13 +1656,13 @@
     <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="15"/>
       <c r="F26" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
       <c r="J26" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -1722,13 +1724,13 @@
     <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="15"/>
       <c r="F28" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
       <c r="J28" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -1790,13 +1792,13 @@
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="15"/>
       <c r="F30" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="21"/>
       <c r="J30" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -1826,7 +1828,7 @@
     <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="15"/>
       <c r="F31" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -1862,23 +1864,23 @@
     </row>
     <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="15" t="str">
-        <f>$D$9&amp;"3."</f>
-        <v>7.1.1.3.</v>
+        <f>$D$20&amp;"3."</f>
+        <v>7.1.2.3.</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="15"/>
       <c r="F34" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="15"/>
       <c r="F35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1890,7 +1892,7 @@
         <v>7.1.2.</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1902,23 +1904,23 @@
         <v>7.1.2.1.</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1958,17 +1960,17 @@
         <v>7.1.2.2.</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1980,17 +1982,17 @@
         <v>7.1.2.3.</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F51" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.1入力値精査.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33E81D-73B6-43FB-880A-174280C640D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="195" windowWidth="19395" windowHeight="6765"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="入力値精査" sheetId="1" r:id="rId1"/>
+    <sheet name="7.1.入力値精査" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">入力値精査!$A$1:$AI$56</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">入力値精査!$A$1:$AI$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.1.入力値精査'!$A$1:$AI$52</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.1.入力値精査'!$A$1:$AI$40</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -57,22 +69,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力値精査の種類と順番</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジュンバン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力値精査の種類</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -82,13 +78,6 @@
   </si>
   <si>
     <t>方針</t>
-  </si>
-  <si>
-    <t>データベースを</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>用いた精査</t>
   </si>
   <si>
     <t>単項目精査</t>
@@ -106,13 +95,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースを用いた精査の実現方式</t>
-    <rPh sb="7" eb="8">
-      <t>モチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>概要</t>
   </si>
   <si>
@@ -150,10 +132,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースを使用した精査。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本システムでは入力値が予め定義しておいた単項目精査ルールに従っているかどうかで精査を行う。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -188,38 +166,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>単項目精査、項目間精査およびデータベースを用いた精査の実現方式</t>
-    <rPh sb="0" eb="1">
-      <t>タン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースを用いた精査処理は、単項目精査と項目間精査を通過した後に行われる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アプリケーションプログラマが個別に精査ロジックを業務ロジックに実装し、チェックを行う。</t>
     <rPh sb="40" eb="41">
       <t>オコナ</t>
@@ -231,56 +177,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Batchletの場合は、データに依存しない処理のため、精査処理を行わない前提とする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Bean Validationはバリデーションの実行順序を指定できないため、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(Nablarch Validation)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>上記の理由から本プロジェクトでは、こちらを選択する。</t>
-    <rPh sb="21" eb="23">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Nablarch独自のバリデーション機能</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarch独自のバリデーション機能を使用して、オンライン処理の場合はActionから、</t>
-    <rPh sb="21" eb="23">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Chunkのバッチ処理の場合はItemProcessorから入力値を取得して、単項目精査処理がエラーなく完了した後に項目間精査が行われる。</t>
-    <rPh sb="44" eb="46">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>単項目精査では、Nablarch独自のバリデーション機能を使用する。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -355,14 +256,153 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本プロジェクトではでこちらは選択しない。</t>
+    <t>NablarchではBean Validationを利用したバリデーションが推奨されているため。</t>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bean Validationを利用したバリデーションでは精査の順序が保証されないが、</t>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査順序の指定は要件にないので許容する。</t>
+    <rPh sb="0" eb="4">
+      <t>セイサジュンジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査</t>
+    <rPh sb="0" eb="2">
+      <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない精査の実現方式</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単項目精査、項目間精査およびFormで完結しない精査の実現方式</t>
+    <rPh sb="0" eb="1">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースやセッション情報を使用した精査など、Formが持つ情報だけでは実施できない精査。</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値精査の種類と対象</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Formで完結しない精査処理は、単項目精査と項目間精査を通過した後に行う。</t>
+    <rPh sb="5" eb="7">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -578,7 +618,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,9 +704,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -759,9 +796,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -769,12 +806,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -816,7 +856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,9 +889,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,6 +941,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1059,10 +1133,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1071,48 +1145,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="45"/>
+      <c r="R1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="44"/>
       <c r="Y1" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1121,43 +1195,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
       <c r="P2" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="54"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="53"/>
       <c r="Y2" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1166,39 +1240,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="57"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="12" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="39"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="38"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1219,324 +1293,325 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="15"/>
+    </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="15" t="str">
         <f>$C$7&amp;"1."</f>
         <v>7.1.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="15"/>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="str">
-        <f>$D$9&amp;"1."</f>
-        <v>7.1.1.1.</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="18"/>
+    </row>
+    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="31"/>
+    </row>
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="31"/>
+    </row>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="31"/>
+    </row>
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="34"/>
+    </row>
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="31"/>
+    </row>
+    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="31"/>
+    </row>
+    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="34"/>
+    </row>
+    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="15" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>7.1.2.</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F12" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="18"/>
-    </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="32"/>
-    </row>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="32"/>
-    </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="32"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="35"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="32"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="32"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="35"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="15" t="str">
-        <f>$D$9&amp;"2."</f>
-        <v>7.1.1.2.</v>
+        <f>$D$20&amp;"2."</f>
+        <v>7.1.2.2.</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="15"/>
       <c r="F23" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1545,13 +1620,13 @@
     <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="15"/>
       <c r="F25" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
       <c r="J25" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
@@ -1581,13 +1656,13 @@
     <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="15"/>
       <c r="F26" s="19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
       <c r="J26" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -1649,13 +1724,13 @@
     <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="15"/>
       <c r="F28" s="25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
       <c r="J28" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -1717,13 +1792,13 @@
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="15"/>
       <c r="F30" s="19" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="21"/>
       <c r="J30" s="20" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -1753,7 +1828,7 @@
     <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="15"/>
       <c r="F31" s="22" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -1789,23 +1864,23 @@
     </row>
     <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="15" t="str">
-        <f>$D$9&amp;"3."</f>
-        <v>7.1.1.3.</v>
+        <f>$D$20&amp;"3."</f>
+        <v>7.1.2.3.</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="15"/>
       <c r="F34" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="15"/>
       <c r="F35" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1817,7 +1892,7 @@
         <v>7.1.2.</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1829,118 +1904,98 @@
         <v>7.1.2.1.</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
     </row>
     <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="20"/>
-      <c r="AH45" s="20"/>
-    </row>
-    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="15" t="str">
+      <c r="E45" s="15" t="str">
         <f>$D$37&amp;"2."</f>
         <v>7.1.2.2.</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>36</v>
+      <c r="F45" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F48" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F51" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="27"/>
-    </row>
-    <row r="53" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="15" t="str">
+      <c r="E49" s="15" t="str">
         <f>$D$37&amp;"3."</f>
         <v>7.1.2.3.</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F54" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F49" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
